--- a/public/assets/files/template-pg-excel.xlsx
+++ b/public/assets/files/template-pg-excel.xlsx
@@ -1,38 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SERVER\Documents\elearning\public\assets\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMKN69JKT\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B84AB6-29F2-49D0-A6E1-2EA996C8C605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78982E32-ECDD-4863-9C58-A466F4538E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>soal</t>
-  </si>
-  <si>
-    <t>jawaban</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -46,6 +35,12 @@
   </si>
   <si>
     <t>E</t>
+  </si>
+  <si>
+    <t>SOAL</t>
+  </si>
+  <si>
+    <t>JAWABAN</t>
   </si>
 </sst>
 </file>
@@ -438,41 +433,37 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="2"/>
-    <col min="7" max="7" width="9.140625" style="2"/>
+    <col min="1" max="1" width="32.54296875" style="1" customWidth="1"/>
+    <col min="2" max="6" width="17.90625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.26953125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:7">
